--- a/biology/Botanique/Mauritia_(palmier)/Mauritia_(palmier).xlsx
+++ b/biology/Botanique/Mauritia_(palmier)/Mauritia_(palmier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mauritia est un genre de la famille des Arecaceae (Palmiers) comprenant des espèces natives de la partie Nord de l'Amérique du Sud.
 L'espèce Mauritia flexuosa est largement répandue dans cette zone de l'Amérique du Sud.
@@ -512,12 +524,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Calamoideae
 Tribu des Lepidocaryeae 
-Sous-tribu des Mauritiinae[1],[2]
+Sous-tribu des Mauritiinae,
 Sa tribu comprend deux autres genres : Lepidocaryum et Mauritiella.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mauritia carana
 Mauritia flexuosa</t>
